--- a/artifact/script/web-03.xlsx
+++ b/artifact/script/web-03.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFB513A-9B2C-0A47-B742-9E57FD427074}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB93718E-C0AE-D849-9F49-F2731C51BA55}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="40960" windowHeight="25080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10360" windowWidth="25540" windowHeight="21640" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Test Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="locators" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -49,7 +49,7 @@
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="482">
   <si>
     <t>description</t>
   </si>
@@ -1378,7 +1378,145 @@
     <t>automike</t>
   </si>
   <si>
-    <t>web automation workshop 03 - Locators</t>
+    <t>web automation workshop 03 - Locators
+- assert element by locator
+- assert element count by locator
+- assert element content (text) by locator
+- interact with web page click by locator
+- various locator strategies</t>
+  </si>
+  <si>
+    <t>Check Table of Content</t>
+  </si>
+  <si>
+    <t>${aut : url}</t>
+  </si>
+  <si>
+    <t>${aut : tocTitle}</t>
+  </si>
+  <si>
+    <t>check that TOC has a title of ${aut : tocTitle}</t>
+  </si>
+  <si>
+    <t>${aut : toc}</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>${aut : code1}</t>
+  </si>
+  <si>
+    <t>aut : code1</t>
+  </si>
+  <si>
+    <t>check that TOC has the right list</t>
+  </si>
+  <si>
+    <t>show the first code example</t>
+  </si>
+  <si>
+    <t>Harvest Code/Content</t>
+  </si>
+  <si>
+    <t>aut : codeExamples</t>
+  </si>
+  <si>
+    <t>[LIST(${aut : codeExamples}) =&gt; item(0)]</t>
+  </si>
+  <si>
+    <t>[LIST(${aut : codeExamples}) =&gt; item(1)]</t>
+  </si>
+  <si>
+    <t>nexial.textDelim</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>${loc : class : tocTitle}</t>
+  </si>
+  <si>
+    <t>${loc : css : codeAll}</t>
+  </si>
+  <si>
+    <t>${loc : css : code1}</t>
+  </si>
+  <si>
+    <t>${loc : class : tocItems}</t>
+  </si>
+  <si>
+    <t>Download Image</t>
+  </si>
+  <si>
+    <t>capture all code example</t>
+  </si>
+  <si>
+    <t>show the first one</t>
+  </si>
+  <si>
+    <t>show the second one</t>
+  </si>
+  <si>
+    <t>aut : imageLink</t>
+  </si>
+  <si>
+    <t>${aut : imageLink}</t>
+  </si>
+  <si>
+    <t>(null)</t>
+  </si>
+  <si>
+    <t>${aut : img : helloworld}</t>
+  </si>
+  <si>
+    <t>click on Kernighan's famous hello world</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>src</t>
+  </si>
+  <si>
+    <t>${loc : css : helloworldLink}</t>
+  </si>
+  <si>
+    <t>${loc : css : helloworldImage}</t>
+  </si>
+  <si>
+    <t>${loc : css : references}</t>
+  </si>
+  <si>
+    <t>aut : references</t>
+  </si>
+  <si>
+    <t>${aut : references}</t>
+  </si>
+  <si>
+    <t>extract src from ${loc : css : helloworldImage}</t>
+  </si>
+  <si>
+    <t>extract image URL is ${aut : img : helloworld}</t>
+  </si>
+  <si>
+    <t>Check List of Things</t>
+  </si>
+  <si>
+    <t>aut : references : expected</t>
+  </si>
+  <si>
+    <t>${aut : references : expected}</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>[CSV(${aut : references : file}) =&gt; 
+ parse(header=true,delim=\|)
+ column(Reference) 
+ text
+]</t>
   </si>
 </sst>
 </file>
@@ -3550,20 +3688,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1000"/>
+  <dimension ref="A1:O999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="28" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.33203125" style="28" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="47.83203125" style="9" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="44.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.5" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="37.83203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="18.33203125" style="23" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
@@ -3690,11 +3830,19 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="27" t="s">
+        <v>439</v>
+      </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>440</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3708,11 +3856,21 @@
     </row>
     <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>441</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -3725,12 +3883,24 @@
     </row>
     <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="B7" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>444</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="22"/>
@@ -3741,12 +3911,24 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="A8" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>457</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3760,9 +3942,15 @@
     <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>445</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -3777,10 +3965,18 @@
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>454</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -3793,11 +3989,21 @@
     </row>
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>456</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -3810,10 +4016,18 @@
     </row>
     <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>451</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -3827,10 +4041,18 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>452</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -3843,30 +4065,54 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>470</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="22"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="15"/>
+      <c r="L14" s="15" t="s">
+        <v>468</v>
+      </c>
       <c r="M14" s="12"/>
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="B15" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>469</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="22"/>
@@ -3878,12 +4124,24 @@
     </row>
     <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="B16" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>466</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="22"/>
@@ -3894,10 +4152,16 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="27" t="s">
+        <v>477</v>
+      </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>138</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -3913,10 +4177,18 @@
     <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="C18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>472</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -3930,9 +4202,15 @@
     <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>474</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -3944,13 +4222,21 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="C20" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>481</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -3964,11 +4250,21 @@
     <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="C21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>480</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="22"/>
@@ -3984,7 +4280,6 @@
       <c r="C22" s="13"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4065,7 +4360,7 @@
     </row>
     <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="13"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -4082,7 +4377,7 @@
     </row>
     <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="13"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -14620,23 +14915,7 @@
       <c r="N647" s="15"/>
       <c r="O647" s="3"/>
     </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A648" s="27"/>
-      <c r="B648" s="5"/>
-      <c r="C648" s="13"/>
-      <c r="D648" s="7"/>
-      <c r="E648" s="7"/>
-      <c r="F648" s="7"/>
-      <c r="G648" s="7"/>
-      <c r="H648" s="7"/>
-      <c r="I648" s="7"/>
-      <c r="J648" s="22"/>
-      <c r="K648" s="3"/>
-      <c r="L648" s="15"/>
-      <c r="M648" s="12"/>
-      <c r="N648" s="15"/>
-      <c r="O648" s="3"/>
-    </row>
+    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14988,7 +15267,6 @@
     <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -15009,10 +15287,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D697" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C700" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C699" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
